--- a/数据整理/stocks/其他/NVDA-NVIDIACorp.xlsx
+++ b/数据整理/stocks/其他/NVDA-NVIDIACorp.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2683,4 +2684,1770 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7762</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7762</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2244</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7795</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7241</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7241</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5527</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>163813</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银全球策略(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/NVDA-NVIDIACorp.xlsx
+++ b/数据整理/stocks/其他/NVDA-NVIDIACorp.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4450,4 +4451,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/NVDA-NVIDIACorp.xlsx
+++ b/数据整理/stocks/其他/NVDA-NVIDIACorp.xlsx
@@ -4475,12 +4475,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/NVDA-NVIDIACorp.xlsx
+++ b/数据整理/stocks/其他/NVDA-NVIDIACorp.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,893 +453,1851 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000988</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 人民币QDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7039</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.52</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000989</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.53</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7039</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000990</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7039</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000055</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6405</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006479</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数（QDII）C人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>27.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6405</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006480</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>27.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6405</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>270042</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100指数QDII A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6405</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>040046</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 人民币</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>17.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4388</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>040047</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 美元现钞</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4388</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>040048</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数QDII - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4388</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>513100</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国泰纳斯达克100 (QDII-ETF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3824</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000834</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成纳斯达克100指数 (QDII)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.76</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2869</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003721</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2676</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161128</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2676</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000043</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.47</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2523</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000044</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10.47</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2523</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159941</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100ETFQDII</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>10.55</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2384</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>160213</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰纳斯达克100指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2220</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003722</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1833</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>161130</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1833</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>080006</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长盛环球行业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006555</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.06</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7762</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7762</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4105</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2244</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7795</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7241</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7241</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5527</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000043</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000044</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003721</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513300</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏纳斯达克100ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>163813</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银全球策略(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2687,241 +3645,241 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011420</t>
+          <t>000988</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.37</t>
+          <t>17.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8219</t>
+          <t>1.7039</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6405</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011421</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8219</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000906</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>39.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.3788</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>39.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.3788</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000055</t>
+          <t>006479</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>56.03</t>
+          <t>27.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>86.52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.7762</t>
+          <t>0.6405</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2929,37 +3887,37 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006479</t>
+          <t>006480</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发纳斯达克100指数（QDII）C人民币</t>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>56.03</t>
+          <t>27.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>86.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.7762</t>
+          <t>0.6405</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2967,37 +3925,37 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006480</t>
+          <t>270042</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+          <t>广发纳斯达克100指数QDII A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56.03</t>
+          <t>27.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>86.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.7762</t>
+          <t>0.6405</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3005,37 +3963,37 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270042</t>
+          <t>040046</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发纳斯达克100指数QDII A</t>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>56.03</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.7762</t>
+          <t>0.4388</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3043,341 +4001,341 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000988</t>
+          <t>040047</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实全球互联网股票 - 人民币QDII</t>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.19</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.4105</t>
+          <t>0.4388</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000989</t>
+          <t>040048</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.19</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.4105</t>
+          <t>0.4388</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000990</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14.19</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>89.62</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.4105</t>
+          <t>0.3824</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000041</t>
+          <t>000834</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏全球精选股票(QDII)</t>
+          <t>大成纳斯达克100指数 (QDII)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.11</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.2244</t>
+          <t>0.2869</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>003721</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰纳斯达克100 (QDII-ETF)</t>
+          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>93.39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.7795</t>
+          <t>0.2676</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>040046</t>
+          <t>161128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 人民币</t>
+          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22.71</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>93.39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.7653</t>
+          <t>0.2676</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>040047</t>
+          <t>000043</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+          <t>嘉实美国成长股票(QDII) -人民币</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22.71</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.7653</t>
+          <t>0.2523</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>040048</t>
+          <t>000044</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22.71</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.7653</t>
+          <t>0.2523</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>159941</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>广发纳斯达克100ETFQDII</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33.68</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.7241</t>
+          <t>0.2384</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -3385,37 +4343,37 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>160213</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>国泰纳斯达克100指数(QDII)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33.68</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.7241</t>
+          <t>0.2220</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -3423,37 +4381,37 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>513500</t>
+          <t>003722</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时标普500ETF(QDII)</t>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>40.94</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>95.66</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.5527</t>
+          <t>0.1833</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -3461,1078 +4419,120 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011422</t>
+          <t>161130</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.5463</t>
+          <t>0.1833</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011423</t>
+          <t>080006</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+          <t>长盛环球行业混合(QDII)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.5463</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>160213</t>
+          <t>006555</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰纳斯达克100指数(QDII)</t>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>90.06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.5062</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000834</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>大成纳斯达克100指数 (QDII)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4699</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>012208</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>18.32</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>42.79</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.4104</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000043</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) -人民币</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>11.73</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3894</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>000044</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实美国成长股票(QDII) - 美元现汇</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11.73</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.3894</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>161130</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.3177</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003722</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.3177</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>161128</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>易方达标普信息科技指数（QDII-LOF）人民币</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2889</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003721</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>易方达标普信息科技指数（QDII-LOF）美元</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2889</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>159941</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发纳斯达克100ETFQDII</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>85.55</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2301</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006792</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>81.37</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1317</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>160644</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>鹏华香港美国互联网股票（LOF）人民币</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>81.37</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1317</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>513300</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华夏纳斯达克100ETF（QDII）</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1190</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>100055</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>富国全球科技互联网股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>81.86</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0885</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>161125</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>易方达标普500指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0733</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>003718</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>易方达标普500指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0733</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005698</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华夏全球科技先锋混合QDII</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>90.50</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0439</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006373</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>006374</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>012209</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>42.79</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006555</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.92</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>011706</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>89.92</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>163813</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中银全球策略(QDII-FOF)</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>22.98</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>